--- a/content/17whurbqij.xlsx
+++ b/content/17whurbqij.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -43,9 +43,36 @@
     <t xml:space="preserve">lon</t>
   </si>
   <si>
+    <t xml:space="preserve">2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spring</t>
   </si>
   <si>
+    <t xml:space="preserve">Bari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Università degli Studi di Bari - Dipartimento di Giurisprudenza, Piazza Cesare Battisti, 1, 70122 Bari BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-privacy.winstonsmith.org/e-privacy-XXXVI.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brescia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordine degli Ingegneri della Provincia di Brescia, Via Cefalonia, 70, 25124 Brescia BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-privacy.winstonsmith.org/e-privacy-XXXV.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Firenze</t>
   </si>
   <si>
@@ -61,9 +88,6 @@
     <t xml:space="preserve">11.2490475524806</t>
   </si>
   <si>
-    <t xml:space="preserve">Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pisa</t>
   </si>
   <si>
@@ -131,9 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://e-privacy.winstonsmith.org/e-privacy-XXVII.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bari</t>
   </si>
   <si>
     <t xml:space="preserve">Ordine Avvocati di Bari, Piazza Enrico de Nicola, 1, 70123 Bari BA</t>
@@ -394,7 +415,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -416,6 +437,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,7 +487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,7 +501,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -483,6 +510,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -497,18 +528,124 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.58"/>
@@ -544,31 +681,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>2024</v>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="n">
+        <v>41.1202400901967</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>16.8677728933869</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2023</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -579,180 +716,180 @@
       <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
+      <c r="F3" s="3" t="n">
+        <v>45.5249933866926</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>10.2156898251627</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -764,7 +901,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>40</v>
@@ -775,163 +912,163 @@
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -939,447 +1076,497 @@
         <v>2016</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>105</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
         <v>2002</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>120</v>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://e-privacy.winstonsmith.org/e-privacy-XXXVI"/>
+    <hyperlink ref="E3" r:id="rId2" display="http://e-privacy.winstonsmith.org/e-privacy-XXXV"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
